--- a/TORO10Board/BOM.xlsx
+++ b/TORO10Board/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="toro10" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,748 +22,748 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="248">
   <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Model Number</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Parts</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>0Ω</t>
-  </si>
-  <si>
-    <t>R62, R64, R65, R67, R73, R75, R76, R78, R84, R86, R87, R89, R95, R97, R98, R100</t>
-  </si>
-  <si>
-    <t>WSLF25121L000FEA </t>
-  </si>
-  <si>
-    <t>1mΩ</t>
-  </si>
-  <si>
-    <t>WSLF2512</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>2mΩ</t>
-  </si>
-  <si>
-    <t>R63, R66, R74, R77, R85, R88, R96, R99</t>
-  </si>
-  <si>
-    <t>PRL1632-R005-F-T1 </t>
-  </si>
-  <si>
-    <t>5mΩ</t>
-  </si>
-  <si>
-    <t>3216WL</t>
-  </si>
-  <si>
-    <t>R24, R25</t>
-  </si>
-  <si>
-    <t>1Ω</t>
-  </si>
-  <si>
-    <t>R60, R71, R82, R93, R104</t>
-  </si>
-  <si>
-    <t>51Ω</t>
-  </si>
-  <si>
-    <t>R6, R7, R31, R32, R36, R43</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>R4, R17, R29, R30, R51, R52, R69, R70, R80, R81, R91, R92, R102, R103</t>
-  </si>
-  <si>
-    <t>2.2kΩ</t>
-  </si>
-  <si>
-    <t>R21, R33, R44, R45, R49, R53, R54</t>
-  </si>
-  <si>
-    <t>3.3kΩ</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>4.7kΩ</t>
-  </si>
-  <si>
-    <t>R20, R27, R28, R39, R41</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>R2, R10, R40, R46, R47, R48, R50, R55</t>
-  </si>
-  <si>
-    <t>15kΩ</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>22kΩ</t>
-  </si>
-  <si>
-    <t>R9, R14, R61, R72, R83, R94</t>
-  </si>
-  <si>
-    <t>33kΩ</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>47kΩ</t>
-  </si>
-  <si>
-    <t>R11, R16, R18, R105</t>
-  </si>
-  <si>
-    <t>68.1kΩ</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>130kΩ</t>
-  </si>
-  <si>
-    <t>R13, R15</t>
-  </si>
-  <si>
-    <t>180kΩ</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>220kΩ</t>
-  </si>
-  <si>
-    <t>R1, R3</t>
-  </si>
-  <si>
-    <t>270kΩ</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>Resistor Array</t>
-  </si>
-  <si>
-    <t>51Ωx4</t>
-  </si>
-  <si>
-    <t>R34, R35, R37, R38, R42</t>
-  </si>
-  <si>
-    <t>1kΩx4</t>
-  </si>
-  <si>
-    <t>R56, R57, R58, R59</t>
-  </si>
-  <si>
-    <t>100kΩx4</t>
-  </si>
-  <si>
-    <t>R68, R79, R90, R101, R106</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>Do Not Mount</t>
-  </si>
-  <si>
-    <t>C54, C56, C67, C69, C82, C84, C95, C97</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>C14, C20</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>C17, C29, C38</t>
-  </si>
-  <si>
-    <t>100nF 63V</t>
-  </si>
-  <si>
-    <t>C2, C3, C6, C21, C27, C28, C31, C40, C41, C46, C47, C48, C49, C50, C51, C52, C53, C55, C61, C62, C63, C64, C65, C66, C68, C74, C75, C76, C77, C78, C79, C80, C81, C83, C89, C90, C91, C92, C93, C94, C96, C102, C103, C104, C105, C106, C107, C108, C110, C111, C112, C113, C114, C115, C116, C117, C118, C119, C120, C121, C122, C123, C124, C125, C126, C127, C128, C129, C130, C131, C132, C133</t>
-  </si>
-  <si>
-    <t>1uF 63V</t>
-  </si>
-  <si>
-    <t>C4, C5, C7, C16, C30, C32, C33, C34, C35, C37, C42, C43, C44, C45, C57, C58, C59, C60, C70, C71, C72, C73, C85, C86, C87, C88, C98, C99, C100, C101</t>
-  </si>
-  <si>
-    <t>GRM21BB31E106KA</t>
-  </si>
-  <si>
-    <t>10uF 16V</t>
-  </si>
-  <si>
-    <t>C8, ,C9, C10, C15, C18, C39, C109</t>
-  </si>
-  <si>
-    <t>GRM32ER7YA106KA12</t>
-  </si>
-  <si>
-    <t>10uF 35V</t>
-  </si>
-  <si>
-    <t>C22, C23</t>
-  </si>
-  <si>
-    <t>GRM32ER71J106MA12L </t>
-  </si>
-  <si>
-    <t>10uF 63V</t>
-  </si>
-  <si>
-    <t>C24, C25</t>
-  </si>
-  <si>
-    <t>GRM21BR61E226ME44</t>
-  </si>
-  <si>
-    <t>22uF 6.3V</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>Aluminum Capacitor</t>
-  </si>
-  <si>
-    <t>35PK47MEFC5X11</t>
-  </si>
-  <si>
-    <t>47uF 35V</t>
-  </si>
-  <si>
-    <t>φ5mm</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>25PK100MEFC5X11</t>
-  </si>
-  <si>
-    <t>100uF 16V</t>
-  </si>
-  <si>
-    <t>C11, C12, C13</t>
-  </si>
-  <si>
-    <t>UPW1J391MHD6 </t>
-  </si>
-  <si>
-    <t>390uF 63V</t>
-  </si>
-  <si>
-    <t>φ18mm</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>MAMK2520T4R7M </t>
-  </si>
-  <si>
-    <t>4.7uH</t>
-  </si>
-  <si>
-    <t>L1, L2, L3, L4, L5</t>
-  </si>
-  <si>
-    <t>IHLP6767GZER8R2M11 </t>
-  </si>
-  <si>
-    <t>8.2uH</t>
-  </si>
-  <si>
-    <t>17.15mm x 17.15mm</t>
-  </si>
-  <si>
-    <t>L6, L7</t>
-  </si>
-  <si>
-    <t>Ferrite Bead</t>
-  </si>
-  <si>
-    <t>BLM18PG471SN1D</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>Polyswitch</t>
-  </si>
-  <si>
-    <t>MICROSMD010F-02</t>
-  </si>
-  <si>
-    <t>F1, F2, F3, F4, F5, F6</t>
-  </si>
-  <si>
-    <t>Silicon Diode</t>
-  </si>
-  <si>
-    <t>GS1010FL</t>
-  </si>
-  <si>
-    <t>SOD123</t>
-  </si>
-  <si>
-    <t>D11, D14, D15, D16, D17, D18, D19, D20, D21, D22</t>
-  </si>
-  <si>
-    <t>Schottky Diode</t>
-  </si>
-  <si>
-    <t>SS2040FL</t>
-  </si>
-  <si>
-    <t>D2, D3, D4, D5</t>
-  </si>
-  <si>
-    <t>FSV2060L</t>
-  </si>
-  <si>
-    <t>TO-277-3</t>
-  </si>
-  <si>
-    <t>D7, D8</t>
-  </si>
-  <si>
-    <t>TVS Diode</t>
-  </si>
-  <si>
-    <t>SMAJ26A </t>
-  </si>
-  <si>
-    <t>DO-214AC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SMAJ48A </t>
-  </si>
-  <si>
-    <t>D9, D10</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>NPN Transistor</t>
-  </si>
-  <si>
-    <t>2SC2712-GR</t>
-  </si>
-  <si>
-    <t>SOT23-3</t>
-  </si>
-  <si>
-    <t>Q2, Q6</t>
-  </si>
-  <si>
-    <t>Nch MOSFET</t>
-  </si>
-  <si>
-    <t>BSS138</t>
-  </si>
-  <si>
-    <t>Q1, Q3, Q4, Q5, Q10, Q11, Q12</t>
-  </si>
-  <si>
-    <t>TPN7R506NH,L1Q </t>
-  </si>
-  <si>
-    <t>TSON-8_3.3</t>
-  </si>
-  <si>
-    <t>Q8, Q9</t>
-  </si>
-  <si>
-    <t>Pch MOSFET</t>
-  </si>
-  <si>
-    <t>SI7135DP-T1-GE3 </t>
-  </si>
-  <si>
-    <t>POWERPAK-SO-8-S</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>LDO Regulator</t>
-  </si>
-  <si>
-    <t>SPX3819M5-L-5-0/TR </t>
-  </si>
-  <si>
-    <t>SOT23-5</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>Buck Regulator</t>
-  </si>
-  <si>
-    <t>LT3504EUFD#PBF </t>
-  </si>
-  <si>
-    <t>QFN28-0.5</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>Boost Regulator</t>
-  </si>
-  <si>
-    <t>LTC3862EUH-1#PBF </t>
-  </si>
-  <si>
-    <t>QFN24-0.65</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>Serializer</t>
-  </si>
-  <si>
-    <t>SN74LV165APWRG3 </t>
-  </si>
-  <si>
-    <t>TSSOP16</t>
-  </si>
-  <si>
-    <t>U11, U12</t>
-  </si>
-  <si>
-    <t>A/D Conveter</t>
-  </si>
-  <si>
-    <t>ADS7223SRHBT </t>
-  </si>
-  <si>
-    <t>QFN32-0.5</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>Oscillator</t>
-  </si>
-  <si>
-    <t>ASDMB-30.000MHZ-LC-T </t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>EEPROM</t>
-  </si>
-  <si>
-    <t>24AA02E48T-I/OT </t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>Flash Memory</t>
-  </si>
-  <si>
-    <t>IS25LP016D-JNLE </t>
-  </si>
-  <si>
-    <t>SOP8</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>I/O Expander</t>
-  </si>
-  <si>
-    <t>PCAL6416AHF,128 </t>
-  </si>
-  <si>
-    <t>QFN24-0.5</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>Motor Driver</t>
-  </si>
-  <si>
-    <t>DRV8312DDWR </t>
-  </si>
-  <si>
-    <t>HTSSOP44</t>
-  </si>
-  <si>
-    <t>U25</t>
-  </si>
-  <si>
-    <t>DRV8332DKDR </t>
-  </si>
-  <si>
-    <t>HSSOP36</t>
-  </si>
-  <si>
-    <t>U13, U16, U19, U22</t>
-  </si>
-  <si>
-    <t>Inertial Measurement Unit</t>
-  </si>
-  <si>
-    <t>ICM-20689 </t>
-  </si>
-  <si>
-    <t>QFN24</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>Current Sense Amplifier</t>
-  </si>
-  <si>
-    <t>INA219AIDCNR </t>
-  </si>
-  <si>
-    <t>SOT23-8</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>INA240A2PWR </t>
-  </si>
-  <si>
-    <t>TSSOP8</t>
-  </si>
-  <si>
-    <t>U14, U15, U17, U18, U20, U21, U23, U24</t>
-  </si>
-  <si>
-    <t>FPGA</t>
-  </si>
-  <si>
-    <t>10M16SCE144C8G </t>
-  </si>
-  <si>
-    <t>QFP144</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>Piezoelectric Sounder</t>
-  </si>
-  <si>
-    <t>PKLCS1212E4001-R1</t>
-  </si>
-  <si>
-    <t>PKLCS1212</t>
-  </si>
-  <si>
-    <t>BZ1</t>
-  </si>
-  <si>
-    <t>Toggle Switch</t>
-  </si>
-  <si>
-    <t>B-12JV</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>Tactile Switch</t>
-  </si>
-  <si>
-    <t>EVQ-PUB02K </t>
-  </si>
-  <si>
-    <t>EVQ-PU_BK</t>
-  </si>
-  <si>
-    <t>SW2, SW3</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>3557-20</t>
-  </si>
-  <si>
-    <t>CN2</t>
-  </si>
-  <si>
-    <t>0430450801 </t>
-  </si>
-  <si>
-    <t>43045-0800</t>
-  </si>
-  <si>
-    <t>CN3, CN12, CN14, CN16, CN18</t>
-  </si>
-  <si>
-    <t>0534260410</t>
-  </si>
-  <si>
-    <t>53426-04</t>
-  </si>
-  <si>
-    <t>CN11, CN13, CN15, CN17, CN19</t>
-  </si>
-  <si>
-    <t>0039301040 </t>
-  </si>
-  <si>
-    <t>5569-04A2</t>
-  </si>
-  <si>
-    <t>CN1</t>
-  </si>
-  <si>
-    <t>Pin Header</t>
-  </si>
-  <si>
-    <t>Pin Header 1x2 2.54mm Pitch</t>
-  </si>
-  <si>
-    <t>PIN1X2</t>
-  </si>
-  <si>
-    <t>CN4, CN5</t>
-  </si>
-  <si>
-    <t>Pin Header 1x3 2.54mm Pitch</t>
-  </si>
-  <si>
-    <t>PIN1X3</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Pin Header 1x8 2.54mm Pitch</t>
-  </si>
-  <si>
-    <t>PIN1X8</t>
-  </si>
-  <si>
-    <t>CN20</t>
-  </si>
-  <si>
-    <t>Pin Header 2x3 2.54mm Pitch</t>
-  </si>
-  <si>
-    <t>PIN2X3</t>
-  </si>
-  <si>
-    <t>CN8</t>
-  </si>
-  <si>
-    <t>Pin Header 2x5 1.27mm Pitch</t>
-  </si>
-  <si>
-    <t>PIN2X5-TH1.27</t>
-  </si>
-  <si>
-    <t>CN10</t>
-  </si>
-  <si>
-    <t>Pin Header 2x5 2.54mm Pitch</t>
-  </si>
-  <si>
-    <t>PIN2X5</t>
-  </si>
-  <si>
-    <t>CN9, J2</t>
-  </si>
-  <si>
-    <t>Pin Socket</t>
-  </si>
-  <si>
-    <t>2209S-10G</t>
-  </si>
-  <si>
-    <t>SOCKET1X10-TH2.0</t>
-  </si>
-  <si>
-    <t>CN6, CN7</t>
+    <t xml:space="preserve">Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0Ω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R62, R64, R65, R67, R73, R75, R76, R78, R84, R86, R87, R89, R95, R97, R98, R100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSLF25121L000FEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1mΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSLF2512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2mΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R63, R66, R74, R77, R85, R88, R96, R99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRL1632-R005-F-T1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5mΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3216WL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24, R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Ω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R60, R71, R82, R93, R104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51Ω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6, R7, R31, R32, R36, R43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4, R17, R29, R30, R51, R52, R69, R70, R80, R81, R91, R92, R102, R103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21, R33, R44, R45, R49, R53, R54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20, R27, R28, R39, R41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2, R10, R40, R46, R47, R48, R50, R55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9, R14, R61, R72, R83, R94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11, R16, R18, R105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.1kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13, R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51Ωx4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34, R35, R37, R38, R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1kΩx4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R56, R57, R58, R59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100kΩx4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R68, R79, R90, R101, R106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Not Mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C54, C56, C67, C69, C82, C84, C95, C97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14, C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17, C29, C38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100nF 63V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2, C3, C6, C21, C27, C28, C31, C40, C41, C46, C47, C48, C49, C50, C51, C52, C53, C55, C61, C62, C63, C64, C65, C66, C68, C74, C75, C76, C77, C78, C79, C80, C81, C83, C89, C90, C91, C92, C93, C94, C96, C102, C103, C104, C105, C106, C107, C108, C110, C111, C112, C113, C114, C115, C116, C117, C118, C119, C120, C121, C122, C123, C124, C125, C126, C127, C128, C129, C130, C131, C132, C133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1uF 63V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4, C5, C7, C16, C30, C32, C33, C34, C35, C37, C42, C43, C44, C45, C57, C58, C59, C60, C70, C71, C72, C73, C85, C86, C87, C88, C98, C99, C100, C101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM21BB31E106KA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uF 16V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8, ,C9, C10, C15, C18, C39, C109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32ER7YA106KA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uF 35V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22, C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32ER71J106MA12L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uF 63V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24, C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM21BR61E226ME44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22uF 6.3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum Capacitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35PK47MEFC5X11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47uF 35V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">φ5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25PK100MEFC5X11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100uF 16V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11, C12, C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPW1J391MHD6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">390uF 63V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">φ18mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMK2520T4R7M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1, L2, L3, L4, L5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IHLP6767GZER8R2M11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2uH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.15mm x 17.15mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6, L7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrite Bead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLM18PG471SN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyswitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICROSMD010F-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1, F2, F3, F4, F5, F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicon Diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS1010FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11, D14, D15, D16, D17, D18, D19, D20, D21, D22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schottky Diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS2040FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2, D3, D4, D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSV2060L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO-277-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7, D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVS Diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMAJ26A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO-214AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMAJ48A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9, D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPN Transistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SC2712-GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2, Q6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nch MOSFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSS138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1, Q3, Q4, Q5, Q10, Q11, Q12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPN7R506NH,L1Q </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSON-8_3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8, Q9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pch MOSFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI7135DP-T1-GE3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POWERPAK-SO-8-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDO Regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPX3819M5-L-5-0/TR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buck Regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT3504EUFD#PBF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN28-0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boost Regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3862EUH-1#PBF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN24-0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serializer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74LV165APWRG3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSSOP16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U11, U12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/D Conveter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADS7223SRHBT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN32-0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscillator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASDMB-30.000MHZ-LC-T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEPROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24AA02E48T-I/OT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS25LP016D-JNLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O Expander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCAL6416AHF,128 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN24-0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor Driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRV8312DDWR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTSSOP44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRV8332DKDR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSSOP36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U13, U16, U19, U22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inertial Measurement Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICM-20689 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Sense Amplifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INA219AIDCNR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INA240A2PWR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSSOP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U14, U15, U17, U18, U20, U21, U23, U24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10M16SCE144C8G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFP144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piezoelectric Sounder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKLCS1212E4001-R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKLCS1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-12JV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tactile Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVQ-PUB02K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVQ-PU_BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW2, SW3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3557-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0430450801 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43045-0800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN3, CN12, CN14, CN16, CN18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0534260410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53426-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN11, CN13, CN15, CN17, CN19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0039301040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5569-04A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Header 1x2 2.54mm Pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN1X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN4, CN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Header 1x3 2.54mm Pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN1X3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Header 1x8 2.54mm Pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN1X8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Header 2x3 2.54mm Pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN2X3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Header 2x5 1.27mm Pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN2X5-TH1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Header 2x5 2.54mm Pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN2X5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN9, J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2209S-10G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCKET1X10-TH2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN6, CN7</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -912,20 +912,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:82"/>
+  <dimension ref="A1:AMJ82"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.1647727272727"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.0227272727273"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6363636363636"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.3977272727273"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="5.41477272727273"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="125.073863636364"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="5.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="125.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,7 +2449,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
